--- a/outputs-HGR-r202/train-g__CAG-521_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__CAG-521_split_pruned.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="403">
   <si>
     <t>Row</t>
   </si>
@@ -754,6 +756,477 @@
   </si>
   <si>
     <t>label_UMGS1749_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS665_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS665_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS665_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS767_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS767_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS767_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS767_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS767_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS718_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS661_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS665_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS665_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS767_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS941_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1579_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1749_76.fasta</t>
   </si>
 </sst>
 </file>
@@ -774,7 +1247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -788,11 +1261,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -800,6 +1277,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8516,4 +8997,5134 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J80"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2">
+        <v>0.74519750275941821</v>
+      </c>
+      <c r="C2">
+        <v>0.056930347319148762</v>
+      </c>
+      <c r="D2">
+        <v>0.064792800543406956</v>
+      </c>
+      <c r="E2">
+        <v>0.03809562826188935</v>
+      </c>
+      <c r="F2">
+        <v>0.061668279231655659</v>
+      </c>
+      <c r="G2">
+        <v>0.032888302518489169</v>
+      </c>
+      <c r="H2">
+        <v>0.00042713936599177247</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3">
+        <v>0.77100062492498023</v>
+      </c>
+      <c r="C3">
+        <v>0.049546426692485199</v>
+      </c>
+      <c r="D3">
+        <v>0.030800740335207445</v>
+      </c>
+      <c r="E3">
+        <v>0.00770687989106665</v>
+      </c>
+      <c r="F3">
+        <v>0.12244379194487237</v>
+      </c>
+      <c r="G3">
+        <v>0.017433431065828533</v>
+      </c>
+      <c r="H3">
+        <v>0.0010681051455597008</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4">
+        <v>0.44786246001121793</v>
+      </c>
+      <c r="C4">
+        <v>0.23135303102970076</v>
+      </c>
+      <c r="D4">
+        <v>0.069980100210665114</v>
+      </c>
+      <c r="E4">
+        <v>0.15052424217914356</v>
+      </c>
+      <c r="F4">
+        <v>0.050083825339320931</v>
+      </c>
+      <c r="G4">
+        <v>0.04836624745083383</v>
+      </c>
+      <c r="H4">
+        <v>0.0018300937791179553</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5">
+        <v>0.17236445844967696</v>
+      </c>
+      <c r="C5">
+        <v>0.13763065731727814</v>
+      </c>
+      <c r="D5">
+        <v>0.076200861922786162</v>
+      </c>
+      <c r="E5">
+        <v>0.13875865781149752</v>
+      </c>
+      <c r="F5">
+        <v>0.24691395495201079</v>
+      </c>
+      <c r="G5">
+        <v>0.22119943312413326</v>
+      </c>
+      <c r="H5">
+        <v>0.0069319764226171759</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>0.0011974376424902498</v>
+      </c>
+      <c r="C6">
+        <v>0.15741766751878525</v>
+      </c>
+      <c r="D6">
+        <v>0.066109953632386531</v>
+      </c>
+      <c r="E6">
+        <v>0.0014267389299080172</v>
+      </c>
+      <c r="F6">
+        <v>0.23419991734631354</v>
+      </c>
+      <c r="G6">
+        <v>0.45278069287605599</v>
+      </c>
+      <c r="H6">
+        <v>0.086867592054060361</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7">
+        <v>0.60814941358671182</v>
+      </c>
+      <c r="C7">
+        <v>0.09566632959924426</v>
+      </c>
+      <c r="D7">
+        <v>0.13988956693085416</v>
+      </c>
+      <c r="E7">
+        <v>0.01513182865854028</v>
+      </c>
+      <c r="F7">
+        <v>0.11175796390612552</v>
+      </c>
+      <c r="G7">
+        <v>0.029293120110880609</v>
+      </c>
+      <c r="H7">
+        <v>0.00011177720764324823</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8">
+        <v>0.46876976904822526</v>
+      </c>
+      <c r="C8">
+        <v>0.061030607924954641</v>
+      </c>
+      <c r="D8">
+        <v>0.08622899801599361</v>
+      </c>
+      <c r="E8">
+        <v>0.0033270394310529316</v>
+      </c>
+      <c r="F8">
+        <v>0.36364220463666819</v>
+      </c>
+      <c r="G8">
+        <v>0.016967164682996076</v>
+      </c>
+      <c r="H8">
+        <v>3.4216260109222205e-05</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9">
+        <v>0.14571160721281307</v>
+      </c>
+      <c r="C9">
+        <v>0.44463288365772757</v>
+      </c>
+      <c r="D9">
+        <v>0.14431334683112801</v>
+      </c>
+      <c r="E9">
+        <v>0.0070054228923110314</v>
+      </c>
+      <c r="F9">
+        <v>0.072912870330523044</v>
+      </c>
+      <c r="G9">
+        <v>0.18331069305989667</v>
+      </c>
+      <c r="H9">
+        <v>0.002113176015600739</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10">
+        <v>0.021769015373216169</v>
+      </c>
+      <c r="C10">
+        <v>0.41980499693298445</v>
+      </c>
+      <c r="D10">
+        <v>0.17451175299442476</v>
+      </c>
+      <c r="E10">
+        <v>0.0040936664269105114</v>
+      </c>
+      <c r="F10">
+        <v>0.09495792490401038</v>
+      </c>
+      <c r="G10">
+        <v>0.28332212397890505</v>
+      </c>
+      <c r="H10">
+        <v>0.0015405193895487968</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11">
+        <v>0.068562299270018889</v>
+      </c>
+      <c r="C11">
+        <v>0.47895685943931027</v>
+      </c>
+      <c r="D11">
+        <v>0.11070199745664523</v>
+      </c>
+      <c r="E11">
+        <v>0.016122109429749235</v>
+      </c>
+      <c r="F11">
+        <v>0.1069376075946903</v>
+      </c>
+      <c r="G11">
+        <v>0.21102106073901408</v>
+      </c>
+      <c r="H11">
+        <v>0.0076980660705720464</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>0.088920881506010158</v>
+      </c>
+      <c r="C12">
+        <v>0.47425925958884285</v>
+      </c>
+      <c r="D12">
+        <v>0.14977895234997041</v>
+      </c>
+      <c r="E12">
+        <v>0.0095237850566943158</v>
+      </c>
+      <c r="F12">
+        <v>0.10998307375299997</v>
+      </c>
+      <c r="G12">
+        <v>0.16673265481778607</v>
+      </c>
+      <c r="H12">
+        <v>0.00080139292769610727</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13">
+        <v>0.036602097345939777</v>
+      </c>
+      <c r="C13">
+        <v>0.60388110126369832</v>
+      </c>
+      <c r="D13">
+        <v>0.08038530635387281</v>
+      </c>
+      <c r="E13">
+        <v>0.009566188016760813</v>
+      </c>
+      <c r="F13">
+        <v>0.15975039997048582</v>
+      </c>
+      <c r="G13">
+        <v>0.10949754684007208</v>
+      </c>
+      <c r="H13">
+        <v>0.00031736020917015904</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14">
+        <v>0.053239948471599532</v>
+      </c>
+      <c r="C14">
+        <v>0.34437925162333555</v>
+      </c>
+      <c r="D14">
+        <v>0.12717801317343286</v>
+      </c>
+      <c r="E14">
+        <v>0.034279498380963579</v>
+      </c>
+      <c r="F14">
+        <v>0.12949545465717741</v>
+      </c>
+      <c r="G14">
+        <v>0.3032644407089144</v>
+      </c>
+      <c r="H14">
+        <v>0.0081633929845765698</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15">
+        <v>0.063104934302104246</v>
+      </c>
+      <c r="C15">
+        <v>0.64812217195796262</v>
+      </c>
+      <c r="D15">
+        <v>0.10513052250861586</v>
+      </c>
+      <c r="E15">
+        <v>0.0052531944012692341</v>
+      </c>
+      <c r="F15">
+        <v>0.047251122417214027</v>
+      </c>
+      <c r="G15">
+        <v>0.1309711022790227</v>
+      </c>
+      <c r="H15">
+        <v>0.00016695213381113573</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16">
+        <v>0.12838292743604135</v>
+      </c>
+      <c r="C16">
+        <v>0.52269358623621776</v>
+      </c>
+      <c r="D16">
+        <v>0.064447343680169439</v>
+      </c>
+      <c r="E16">
+        <v>0.10069448905839937</v>
+      </c>
+      <c r="F16">
+        <v>0.07637391349382637</v>
+      </c>
+      <c r="G16">
+        <v>0.097034783096308003</v>
+      </c>
+      <c r="H16">
+        <v>0.010372956999037848</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17">
+        <v>0.047048205084459206</v>
+      </c>
+      <c r="C17">
+        <v>0.40283103546980226</v>
+      </c>
+      <c r="D17">
+        <v>0.078164678864044088</v>
+      </c>
+      <c r="E17">
+        <v>0.025450647712103175</v>
+      </c>
+      <c r="F17">
+        <v>0.12156712724721189</v>
+      </c>
+      <c r="G17">
+        <v>0.3235804169305973</v>
+      </c>
+      <c r="H17">
+        <v>0.0013578886917819835</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18">
+        <v>0.14022522895289602</v>
+      </c>
+      <c r="C18">
+        <v>0.32135683272462162</v>
+      </c>
+      <c r="D18">
+        <v>0.10935208510191433</v>
+      </c>
+      <c r="E18">
+        <v>0.049193471813368139</v>
+      </c>
+      <c r="F18">
+        <v>0.12802189117257556</v>
+      </c>
+      <c r="G18">
+        <v>0.23841415020890441</v>
+      </c>
+      <c r="H18">
+        <v>0.013436340025719881</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19">
+        <v>0.059860763979724028</v>
+      </c>
+      <c r="C19">
+        <v>0.1884575940449304</v>
+      </c>
+      <c r="D19">
+        <v>0.12069319663350833</v>
+      </c>
+      <c r="E19">
+        <v>0.019029308839401054</v>
+      </c>
+      <c r="F19">
+        <v>0.22236681448783557</v>
+      </c>
+      <c r="G19">
+        <v>0.34328293782062208</v>
+      </c>
+      <c r="H19">
+        <v>0.04630938419397844</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20">
+        <v>0.019583593250024851</v>
+      </c>
+      <c r="C20">
+        <v>0.26407820733733173</v>
+      </c>
+      <c r="D20">
+        <v>0.062036848568532803</v>
+      </c>
+      <c r="E20">
+        <v>0.030590851745726483</v>
+      </c>
+      <c r="F20">
+        <v>0.14802967592349059</v>
+      </c>
+      <c r="G20">
+        <v>0.4731871224166187</v>
+      </c>
+      <c r="H20">
+        <v>0.0024937007582750176</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21">
+        <v>0.016886662681117742</v>
+      </c>
+      <c r="C21">
+        <v>0.32354112566604015</v>
+      </c>
+      <c r="D21">
+        <v>0.053462505415688359</v>
+      </c>
+      <c r="E21">
+        <v>0.021875034073320056</v>
+      </c>
+      <c r="F21">
+        <v>0.13322715781830605</v>
+      </c>
+      <c r="G21">
+        <v>0.44935226033377879</v>
+      </c>
+      <c r="H21">
+        <v>0.0016552540117487032</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22">
+        <v>0.094443777079496374</v>
+      </c>
+      <c r="C22">
+        <v>0.59000643262465802</v>
+      </c>
+      <c r="D22">
+        <v>0.12771208195340178</v>
+      </c>
+      <c r="E22">
+        <v>0.0046935765983370731</v>
+      </c>
+      <c r="F22">
+        <v>0.049530821857507623</v>
+      </c>
+      <c r="G22">
+        <v>0.13320070328684852</v>
+      </c>
+      <c r="H22">
+        <v>0.00041260659975067776</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23">
+        <v>0.023958301270760339</v>
+      </c>
+      <c r="C23">
+        <v>0.30069808602247605</v>
+      </c>
+      <c r="D23">
+        <v>0.048209482227120438</v>
+      </c>
+      <c r="E23">
+        <v>0.029864260636261322</v>
+      </c>
+      <c r="F23">
+        <v>0.092921385098060208</v>
+      </c>
+      <c r="G23">
+        <v>0.50262106432767262</v>
+      </c>
+      <c r="H23">
+        <v>0.0017274204176489516</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24">
+        <v>0.040404902242902566</v>
+      </c>
+      <c r="C24">
+        <v>0.16333118000903257</v>
+      </c>
+      <c r="D24">
+        <v>0.061316770890897092</v>
+      </c>
+      <c r="E24">
+        <v>0.033720239508087967</v>
+      </c>
+      <c r="F24">
+        <v>0.1905951738233721</v>
+      </c>
+      <c r="G24">
+        <v>0.49128780748770912</v>
+      </c>
+      <c r="H24">
+        <v>0.019343926037998577</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25">
+        <v>0.024630848845070996</v>
+      </c>
+      <c r="C25">
+        <v>0.13861459818297875</v>
+      </c>
+      <c r="D25">
+        <v>0.048586442919003853</v>
+      </c>
+      <c r="E25">
+        <v>0.025884985849750557</v>
+      </c>
+      <c r="F25">
+        <v>0.12477502835980486</v>
+      </c>
+      <c r="G25">
+        <v>0.52749183861104276</v>
+      </c>
+      <c r="H25">
+        <v>0.11001625723234815</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26">
+        <v>0.014382373349874817</v>
+      </c>
+      <c r="C26">
+        <v>0.11769467863520253</v>
+      </c>
+      <c r="D26">
+        <v>0.043354106884259232</v>
+      </c>
+      <c r="E26">
+        <v>0.020726061359808503</v>
+      </c>
+      <c r="F26">
+        <v>0.12181171824334928</v>
+      </c>
+      <c r="G26">
+        <v>0.56865409571558378</v>
+      </c>
+      <c r="H26">
+        <v>0.11337696581192182</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27">
+        <v>0.01077495739725658</v>
+      </c>
+      <c r="C27">
+        <v>0.066202817763851229</v>
+      </c>
+      <c r="D27">
+        <v>0.029974898269123335</v>
+      </c>
+      <c r="E27">
+        <v>0.017397625588552821</v>
+      </c>
+      <c r="F27">
+        <v>0.080079451166819471</v>
+      </c>
+      <c r="G27">
+        <v>0.61501316171362164</v>
+      </c>
+      <c r="H27">
+        <v>0.18055708810077492</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28">
+        <v>0.062686134506631089</v>
+      </c>
+      <c r="C28">
+        <v>0.6555497431508639</v>
+      </c>
+      <c r="D28">
+        <v>0.085843391464540397</v>
+      </c>
+      <c r="E28">
+        <v>0.038423290031514477</v>
+      </c>
+      <c r="F28">
+        <v>0.045247272300633815</v>
+      </c>
+      <c r="G28">
+        <v>0.11135539512420116</v>
+      </c>
+      <c r="H28">
+        <v>0.00089477342161516939</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29">
+        <v>0.12517846828666301</v>
+      </c>
+      <c r="C29">
+        <v>0.25184498577877873</v>
+      </c>
+      <c r="D29">
+        <v>0.22305810578296803</v>
+      </c>
+      <c r="E29">
+        <v>0.12728926302379417</v>
+      </c>
+      <c r="F29">
+        <v>0.13872665894555031</v>
+      </c>
+      <c r="G29">
+        <v>0.13357373604033421</v>
+      </c>
+      <c r="H29">
+        <v>0.00032878214191158661</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30">
+        <v>0.21974616312662937</v>
+      </c>
+      <c r="C30">
+        <v>0.19290033678855384</v>
+      </c>
+      <c r="D30">
+        <v>0.38090613821255981</v>
+      </c>
+      <c r="E30">
+        <v>0.058251356244650443</v>
+      </c>
+      <c r="F30">
+        <v>0.069064910729361453</v>
+      </c>
+      <c r="G30">
+        <v>0.078930575807243553</v>
+      </c>
+      <c r="H30">
+        <v>0.0002005190910014806</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31">
+        <v>0.18584598470985775</v>
+      </c>
+      <c r="C31">
+        <v>0.17016673184850259</v>
+      </c>
+      <c r="D31">
+        <v>0.34727961936066648</v>
+      </c>
+      <c r="E31">
+        <v>0.20954607856821766</v>
+      </c>
+      <c r="F31">
+        <v>0.04928044788662115</v>
+      </c>
+      <c r="G31">
+        <v>0.037778862379555356</v>
+      </c>
+      <c r="H31">
+        <v>0.00010227524657903847</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32">
+        <v>0.13045887260043373</v>
+      </c>
+      <c r="C32">
+        <v>0.15250475751757314</v>
+      </c>
+      <c r="D32">
+        <v>0.10804462350506422</v>
+      </c>
+      <c r="E32">
+        <v>0.47983090234832271</v>
+      </c>
+      <c r="F32">
+        <v>0.041061199181651235</v>
+      </c>
+      <c r="G32">
+        <v>0.087768811648523792</v>
+      </c>
+      <c r="H32">
+        <v>0.00033083319843125536</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33">
+        <v>0.059357454417257774</v>
+      </c>
+      <c r="C33">
+        <v>0.046180470080487937</v>
+      </c>
+      <c r="D33">
+        <v>0.076879662976271565</v>
+      </c>
+      <c r="E33">
+        <v>0.81238773416658283</v>
+      </c>
+      <c r="F33">
+        <v>0.0029055918902327754</v>
+      </c>
+      <c r="G33">
+        <v>0.0022872942310785101</v>
+      </c>
+      <c r="H33">
+        <v>1.7922380885649213e-06</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34">
+        <v>0.070903793797813003</v>
+      </c>
+      <c r="C34">
+        <v>0.10562402336202258</v>
+      </c>
+      <c r="D34">
+        <v>0.12840612741025739</v>
+      </c>
+      <c r="E34">
+        <v>0.67589316812127931</v>
+      </c>
+      <c r="F34">
+        <v>0.0046066916623736572</v>
+      </c>
+      <c r="G34">
+        <v>0.014553260285073885</v>
+      </c>
+      <c r="H34">
+        <v>1.2935361180035887e-05</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35">
+        <v>0.1558374268171811</v>
+      </c>
+      <c r="C35">
+        <v>0.1269750641181368</v>
+      </c>
+      <c r="D35">
+        <v>0.18866269751061204</v>
+      </c>
+      <c r="E35">
+        <v>0.46566493483835109</v>
+      </c>
+      <c r="F35">
+        <v>0.030036305753261543</v>
+      </c>
+      <c r="G35">
+        <v>0.032801239663619336</v>
+      </c>
+      <c r="H35">
+        <v>2.2331298838097236e-05</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36">
+        <v>0.054508426608062731</v>
+      </c>
+      <c r="C36">
+        <v>0.07949036238515042</v>
+      </c>
+      <c r="D36">
+        <v>0.1344521873902054</v>
+      </c>
+      <c r="E36">
+        <v>0.70830389843205888</v>
+      </c>
+      <c r="F36">
+        <v>0.015245652674000618</v>
+      </c>
+      <c r="G36">
+        <v>0.0079965240021268834</v>
+      </c>
+      <c r="H36">
+        <v>2.9485083950061582e-06</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37">
+        <v>0.043684972371560764</v>
+      </c>
+      <c r="C37">
+        <v>0.063421465163845295</v>
+      </c>
+      <c r="D37">
+        <v>0.022630752703088536</v>
+      </c>
+      <c r="E37">
+        <v>0.0020573198929859202</v>
+      </c>
+      <c r="F37">
+        <v>0.84889138545515597</v>
+      </c>
+      <c r="G37">
+        <v>0.019200274066119016</v>
+      </c>
+      <c r="H37">
+        <v>0.00011383034724455203</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B38">
+        <v>0.047428975501345304</v>
+      </c>
+      <c r="C38">
+        <v>0.1340324406544236</v>
+      </c>
+      <c r="D38">
+        <v>0.058368605209997822</v>
+      </c>
+      <c r="E38">
+        <v>0.02291757210028017</v>
+      </c>
+      <c r="F38">
+        <v>0.70054517143999506</v>
+      </c>
+      <c r="G38">
+        <v>0.036510780575714434</v>
+      </c>
+      <c r="H38">
+        <v>0.00019645451824356445</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39">
+        <v>0.062467936029046219</v>
+      </c>
+      <c r="C39">
+        <v>0.14665535788674428</v>
+      </c>
+      <c r="D39">
+        <v>0.10885674808310958</v>
+      </c>
+      <c r="E39">
+        <v>0.026795946674361505</v>
+      </c>
+      <c r="F39">
+        <v>0.50599355118612621</v>
+      </c>
+      <c r="G39">
+        <v>0.14819477659140684</v>
+      </c>
+      <c r="H39">
+        <v>0.0010356835492052678</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40">
+        <v>0.043041557618169093</v>
+      </c>
+      <c r="C40">
+        <v>0.075596878810583301</v>
+      </c>
+      <c r="D40">
+        <v>0.031905605284936495</v>
+      </c>
+      <c r="E40">
+        <v>0.0032245437134237769</v>
+      </c>
+      <c r="F40">
+        <v>0.73115857274332552</v>
+      </c>
+      <c r="G40">
+        <v>0.102546563656428</v>
+      </c>
+      <c r="H40">
+        <v>0.012526278173133778</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41">
+        <v>0.05362552945980454</v>
+      </c>
+      <c r="C41">
+        <v>0.13642945369167506</v>
+      </c>
+      <c r="D41">
+        <v>0.045586822937795299</v>
+      </c>
+      <c r="E41">
+        <v>0.052711263203010901</v>
+      </c>
+      <c r="F41">
+        <v>0.65287170067276368</v>
+      </c>
+      <c r="G41">
+        <v>0.057391802552220032</v>
+      </c>
+      <c r="H41">
+        <v>0.0013834274827305359</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B42">
+        <v>0.039500626471210068</v>
+      </c>
+      <c r="C42">
+        <v>0.028856241054500346</v>
+      </c>
+      <c r="D42">
+        <v>0.034780299884647002</v>
+      </c>
+      <c r="E42">
+        <v>0.016657703227522126</v>
+      </c>
+      <c r="F42">
+        <v>0.84163878045107798</v>
+      </c>
+      <c r="G42">
+        <v>0.037292053502366536</v>
+      </c>
+      <c r="H42">
+        <v>0.001274295408675953</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43">
+        <v>0.03946044719930137</v>
+      </c>
+      <c r="C43">
+        <v>0.039955512687041679</v>
+      </c>
+      <c r="D43">
+        <v>0.042625208092769741</v>
+      </c>
+      <c r="E43">
+        <v>0.0083583484114971868</v>
+      </c>
+      <c r="F43">
+        <v>0.77684901719332389</v>
+      </c>
+      <c r="G43">
+        <v>0.08551436246156939</v>
+      </c>
+      <c r="H43">
+        <v>0.0072371039544967264</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44">
+        <v>0.042554936478620742</v>
+      </c>
+      <c r="C44">
+        <v>0.038465622646249677</v>
+      </c>
+      <c r="D44">
+        <v>0.038644717834973856</v>
+      </c>
+      <c r="E44">
+        <v>0.011016323564960124</v>
+      </c>
+      <c r="F44">
+        <v>0.67321274187660585</v>
+      </c>
+      <c r="G44">
+        <v>0.090559180682123264</v>
+      </c>
+      <c r="H44">
+        <v>0.10554647691646654</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45">
+        <v>0.039089203178167949</v>
+      </c>
+      <c r="C45">
+        <v>0.086184176066043006</v>
+      </c>
+      <c r="D45">
+        <v>0.049961503018488</v>
+      </c>
+      <c r="E45">
+        <v>0.019876755789188891</v>
+      </c>
+      <c r="F45">
+        <v>0.62954489638196143</v>
+      </c>
+      <c r="G45">
+        <v>0.1617271555506746</v>
+      </c>
+      <c r="H45">
+        <v>0.013616310015476023</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46">
+        <v>0.09499261700278909</v>
+      </c>
+      <c r="C46">
+        <v>0.11335225306421402</v>
+      </c>
+      <c r="D46">
+        <v>0.11075984063750374</v>
+      </c>
+      <c r="E46">
+        <v>0.043239775819404087</v>
+      </c>
+      <c r="F46">
+        <v>0.42245299606848008</v>
+      </c>
+      <c r="G46">
+        <v>0.15129710471400906</v>
+      </c>
+      <c r="H46">
+        <v>0.063905412693599895</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47">
+        <v>0.04943151540077656</v>
+      </c>
+      <c r="C47">
+        <v>0.098660439072871281</v>
+      </c>
+      <c r="D47">
+        <v>0.05549917632121501</v>
+      </c>
+      <c r="E47">
+        <v>0.025209701039659256</v>
+      </c>
+      <c r="F47">
+        <v>0.63024869281879614</v>
+      </c>
+      <c r="G47">
+        <v>0.10993948913262901</v>
+      </c>
+      <c r="H47">
+        <v>0.031010986214052731</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48">
+        <v>0.030423787911102212</v>
+      </c>
+      <c r="C48">
+        <v>0.095689651326954311</v>
+      </c>
+      <c r="D48">
+        <v>0.050445508255834805</v>
+      </c>
+      <c r="E48">
+        <v>0.028564768728481394</v>
+      </c>
+      <c r="F48">
+        <v>0.51221965657072988</v>
+      </c>
+      <c r="G48">
+        <v>0.12057763583860882</v>
+      </c>
+      <c r="H48">
+        <v>0.16207899136828868</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49">
+        <v>0.0028817441707689978</v>
+      </c>
+      <c r="C49">
+        <v>0.038504241271804629</v>
+      </c>
+      <c r="D49">
+        <v>0.039914114205042234</v>
+      </c>
+      <c r="E49">
+        <v>0.0085160184839851751</v>
+      </c>
+      <c r="F49">
+        <v>0.18608934890575235</v>
+      </c>
+      <c r="G49">
+        <v>0.14886285378781869</v>
+      </c>
+      <c r="H49">
+        <v>0.57523167917482787</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50">
+        <v>0.0013214292806572711</v>
+      </c>
+      <c r="C50">
+        <v>0.036766564231198208</v>
+      </c>
+      <c r="D50">
+        <v>0.027161032887525711</v>
+      </c>
+      <c r="E50">
+        <v>0.0058021094502289606</v>
+      </c>
+      <c r="F50">
+        <v>0.12645625577187408</v>
+      </c>
+      <c r="G50">
+        <v>0.040886995906720701</v>
+      </c>
+      <c r="H50">
+        <v>0.76160561247179503</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51">
+        <v>0.054643865280078405</v>
+      </c>
+      <c r="C51">
+        <v>0.23335261320288966</v>
+      </c>
+      <c r="D51">
+        <v>0.086024689452442932</v>
+      </c>
+      <c r="E51">
+        <v>0.016270424813773287</v>
+      </c>
+      <c r="F51">
+        <v>0.34862044026236844</v>
+      </c>
+      <c r="G51">
+        <v>0.25460158489139678</v>
+      </c>
+      <c r="H51">
+        <v>0.006486382097050338</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52">
+        <v>0.038431306311535629</v>
+      </c>
+      <c r="C52">
+        <v>0.16562256784625537</v>
+      </c>
+      <c r="D52">
+        <v>0.059481141680689929</v>
+      </c>
+      <c r="E52">
+        <v>0.036656888780583076</v>
+      </c>
+      <c r="F52">
+        <v>0.26033226052275443</v>
+      </c>
+      <c r="G52">
+        <v>0.42744369358520234</v>
+      </c>
+      <c r="H52">
+        <v>0.012032141272978986</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53">
+        <v>0.072889742823401077</v>
+      </c>
+      <c r="C53">
+        <v>0.31985379972679717</v>
+      </c>
+      <c r="D53">
+        <v>0.16196600981738304</v>
+      </c>
+      <c r="E53">
+        <v>0.0052668747210103109</v>
+      </c>
+      <c r="F53">
+        <v>0.18439594158947775</v>
+      </c>
+      <c r="G53">
+        <v>0.25326628192538991</v>
+      </c>
+      <c r="H53">
+        <v>0.0023613493965407646</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54">
+        <v>0.025893452482973943</v>
+      </c>
+      <c r="C54">
+        <v>0.18382517678141846</v>
+      </c>
+      <c r="D54">
+        <v>0.055093791014815242</v>
+      </c>
+      <c r="E54">
+        <v>0.0412948523506683</v>
+      </c>
+      <c r="F54">
+        <v>0.10873258130481285</v>
+      </c>
+      <c r="G54">
+        <v>0.5819870992180175</v>
+      </c>
+      <c r="H54">
+        <v>0.0031730468472937721</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55">
+        <v>0.020632727569736845</v>
+      </c>
+      <c r="C55">
+        <v>0.23358816331500248</v>
+      </c>
+      <c r="D55">
+        <v>0.056508718656655021</v>
+      </c>
+      <c r="E55">
+        <v>0.022955912817538268</v>
+      </c>
+      <c r="F55">
+        <v>0.15016115623727913</v>
+      </c>
+      <c r="G55">
+        <v>0.42554904542001692</v>
+      </c>
+      <c r="H55">
+        <v>0.090604275983771396</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B56">
+        <v>0.012129214599294967</v>
+      </c>
+      <c r="C56">
+        <v>0.061423127353233228</v>
+      </c>
+      <c r="D56">
+        <v>0.023110353673555035</v>
+      </c>
+      <c r="E56">
+        <v>0.0096031646023151795</v>
+      </c>
+      <c r="F56">
+        <v>0.030994712894820715</v>
+      </c>
+      <c r="G56">
+        <v>0.85848543267919575</v>
+      </c>
+      <c r="H56">
+        <v>0.0042539941975851718</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57">
+        <v>0.015269997688265209</v>
+      </c>
+      <c r="C57">
+        <v>0.10543727081445774</v>
+      </c>
+      <c r="D57">
+        <v>0.041445707737225494</v>
+      </c>
+      <c r="E57">
+        <v>0.022305798124307996</v>
+      </c>
+      <c r="F57">
+        <v>0.12289611048253855</v>
+      </c>
+      <c r="G57">
+        <v>0.58489688800794759</v>
+      </c>
+      <c r="H57">
+        <v>0.10774822714525746</v>
+      </c>
+      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58">
+        <v>0.060240776312280343</v>
+      </c>
+      <c r="C58">
+        <v>0.35082045892896169</v>
+      </c>
+      <c r="D58">
+        <v>0.1451406648354415</v>
+      </c>
+      <c r="E58">
+        <v>0.003650372639092223</v>
+      </c>
+      <c r="F58">
+        <v>0.13642201883511018</v>
+      </c>
+      <c r="G58">
+        <v>0.27106910365514914</v>
+      </c>
+      <c r="H58">
+        <v>0.032656604793965031</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59">
+        <v>0.041060993898160182</v>
+      </c>
+      <c r="C59">
+        <v>0.091667865349637501</v>
+      </c>
+      <c r="D59">
+        <v>0.059066874568181098</v>
+      </c>
+      <c r="E59">
+        <v>0.02394129795441453</v>
+      </c>
+      <c r="F59">
+        <v>0.061843719598101421</v>
+      </c>
+      <c r="G59">
+        <v>0.41840727635537855</v>
+      </c>
+      <c r="H59">
+        <v>0.30401197227612664</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60">
+        <v>0.01392977883030703</v>
+      </c>
+      <c r="C60">
+        <v>0.073359767630535047</v>
+      </c>
+      <c r="D60">
+        <v>0.036485694927393758</v>
+      </c>
+      <c r="E60">
+        <v>0.0025948799198337582</v>
+      </c>
+      <c r="F60">
+        <v>0.013017585459679435</v>
+      </c>
+      <c r="G60">
+        <v>0.84115095324445055</v>
+      </c>
+      <c r="H60">
+        <v>0.019461339987800474</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61">
+        <v>0.0064474539815401353</v>
+      </c>
+      <c r="C61">
+        <v>0.036428468242598662</v>
+      </c>
+      <c r="D61">
+        <v>0.033134472005186016</v>
+      </c>
+      <c r="E61">
+        <v>0.0037869669192797653</v>
+      </c>
+      <c r="F61">
+        <v>0.027113042721763604</v>
+      </c>
+      <c r="G61">
+        <v>0.83438454932123662</v>
+      </c>
+      <c r="H61">
+        <v>0.058705046808395285</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62">
+        <v>0.0012321519822355283</v>
+      </c>
+      <c r="C62">
+        <v>0.063264929071453743</v>
+      </c>
+      <c r="D62">
+        <v>0.063870150791971433</v>
+      </c>
+      <c r="E62">
+        <v>0.00018878220339708528</v>
+      </c>
+      <c r="F62">
+        <v>0.096556558474677687</v>
+      </c>
+      <c r="G62">
+        <v>0.72252256439734508</v>
+      </c>
+      <c r="H62">
+        <v>0.052364863078919348</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63">
+        <v>0.014708099640052799</v>
+      </c>
+      <c r="C63">
+        <v>0.31376849226320941</v>
+      </c>
+      <c r="D63">
+        <v>0.074524062781076178</v>
+      </c>
+      <c r="E63">
+        <v>0.020998789676950722</v>
+      </c>
+      <c r="F63">
+        <v>0.32592037534107499</v>
+      </c>
+      <c r="G63">
+        <v>0.24769618885621097</v>
+      </c>
+      <c r="H63">
+        <v>0.0023839914414249702</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64">
+        <v>0.068368279279737723</v>
+      </c>
+      <c r="C64">
+        <v>0.0031709406634712945</v>
+      </c>
+      <c r="D64">
+        <v>0.014871605815275659</v>
+      </c>
+      <c r="E64">
+        <v>3.175206174559028e-05</v>
+      </c>
+      <c r="F64">
+        <v>0.0073344015106387066</v>
+      </c>
+      <c r="G64">
+        <v>0.90562872608544054</v>
+      </c>
+      <c r="H64">
+        <v>0.00059429458369043202</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65">
+        <v>0.040157435567039684</v>
+      </c>
+      <c r="C65">
+        <v>0.3251651751437466</v>
+      </c>
+      <c r="D65">
+        <v>0.063729309709312121</v>
+      </c>
+      <c r="E65">
+        <v>0.02853920855179971</v>
+      </c>
+      <c r="F65">
+        <v>0.2321208146020636</v>
+      </c>
+      <c r="G65">
+        <v>0.2821179228066622</v>
+      </c>
+      <c r="H65">
+        <v>0.028170133619376082</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66">
+        <v>5.6149782573757296e-05</v>
+      </c>
+      <c r="C66">
+        <v>0.016304852376979095</v>
+      </c>
+      <c r="D66">
+        <v>0.024103230730916591</v>
+      </c>
+      <c r="E66">
+        <v>0.00018873384516402219</v>
+      </c>
+      <c r="F66">
+        <v>0.092722138219599293</v>
+      </c>
+      <c r="G66">
+        <v>0.014591495146290498</v>
+      </c>
+      <c r="H66">
+        <v>0.85203339989847682</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67">
+        <v>0.017055846080447641</v>
+      </c>
+      <c r="C67">
+        <v>0.071714611304927761</v>
+      </c>
+      <c r="D67">
+        <v>0.033282710195443793</v>
+      </c>
+      <c r="E67">
+        <v>0.017443982430150509</v>
+      </c>
+      <c r="F67">
+        <v>0.13938031133288639</v>
+      </c>
+      <c r="G67">
+        <v>0.10751715655454469</v>
+      </c>
+      <c r="H67">
+        <v>0.61360538210159921</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68">
+        <v>0.0032704858773424761</v>
+      </c>
+      <c r="C68">
+        <v>0.024011990774219543</v>
+      </c>
+      <c r="D68">
+        <v>0.014762033500499611</v>
+      </c>
+      <c r="E68">
+        <v>0.0090101442320919701</v>
+      </c>
+      <c r="F68">
+        <v>0.023837763896053275</v>
+      </c>
+      <c r="G68">
+        <v>0.024255985977365935</v>
+      </c>
+      <c r="H68">
+        <v>0.90085159574242724</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69">
+        <v>0.0069068557968757971</v>
+      </c>
+      <c r="C69">
+        <v>0.13030250694190965</v>
+      </c>
+      <c r="D69">
+        <v>0.045939672156535001</v>
+      </c>
+      <c r="E69">
+        <v>0.0086002953447781687</v>
+      </c>
+      <c r="F69">
+        <v>0.1450809499519039</v>
+      </c>
+      <c r="G69">
+        <v>0.40988694330162073</v>
+      </c>
+      <c r="H69">
+        <v>0.25328277650637671</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="J69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70">
+        <v>0.0025200375563842366</v>
+      </c>
+      <c r="C70">
+        <v>0.031403456341044869</v>
+      </c>
+      <c r="D70">
+        <v>0.01266682756178512</v>
+      </c>
+      <c r="E70">
+        <v>0.010242409243309193</v>
+      </c>
+      <c r="F70">
+        <v>0.031373294812376822</v>
+      </c>
+      <c r="G70">
+        <v>0.038385420156345468</v>
+      </c>
+      <c r="H70">
+        <v>0.87340855432875431</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B71">
+        <v>0.0062242184774768047</v>
+      </c>
+      <c r="C71">
+        <v>0.029066063477595459</v>
+      </c>
+      <c r="D71">
+        <v>0.019484635470265962</v>
+      </c>
+      <c r="E71">
+        <v>0.0069214337456513552</v>
+      </c>
+      <c r="F71">
+        <v>0.11282687926464639</v>
+      </c>
+      <c r="G71">
+        <v>0.022577961448887279</v>
+      </c>
+      <c r="H71">
+        <v>0.80289880811547676</v>
+      </c>
+      <c r="I71">
+        <v>7</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72">
+        <v>0.00029025028970064318</v>
+      </c>
+      <c r="C72">
+        <v>0.049302412085656847</v>
+      </c>
+      <c r="D72">
+        <v>0.024468388953042399</v>
+      </c>
+      <c r="E72">
+        <v>0.0011740223804569401</v>
+      </c>
+      <c r="F72">
+        <v>0.13701481640278002</v>
+      </c>
+      <c r="G72">
+        <v>0.051294423363606866</v>
+      </c>
+      <c r="H72">
+        <v>0.73645568652475624</v>
+      </c>
+      <c r="I72">
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B73">
+        <v>0.00056801530719162397</v>
+      </c>
+      <c r="C73">
+        <v>0.01617636251606203</v>
+      </c>
+      <c r="D73">
+        <v>0.01878868366248793</v>
+      </c>
+      <c r="E73">
+        <v>0.0047836130607084313</v>
+      </c>
+      <c r="F73">
+        <v>0.0075238482427669052</v>
+      </c>
+      <c r="G73">
+        <v>0.040919817258488062</v>
+      </c>
+      <c r="H73">
+        <v>0.91123965995229506</v>
+      </c>
+      <c r="I73">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74">
+        <v>9.0686437738556915e-05</v>
+      </c>
+      <c r="C74">
+        <v>0.016320837816937672</v>
+      </c>
+      <c r="D74">
+        <v>0.0090560943891205038</v>
+      </c>
+      <c r="E74">
+        <v>0.0019751347318831577</v>
+      </c>
+      <c r="F74">
+        <v>0.05834585363936217</v>
+      </c>
+      <c r="G74">
+        <v>0.087654140972432751</v>
+      </c>
+      <c r="H74">
+        <v>0.82655725201252528</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B75">
+        <v>3.2561452889075443e-07</v>
+      </c>
+      <c r="C75">
+        <v>0.023018095975698535</v>
+      </c>
+      <c r="D75">
+        <v>0.02508829880251584</v>
+      </c>
+      <c r="E75">
+        <v>8.3213747732414462e-06</v>
+      </c>
+      <c r="F75">
+        <v>0.029028300304850874</v>
+      </c>
+      <c r="G75">
+        <v>0.0037881788050800739</v>
+      </c>
+      <c r="H75">
+        <v>0.91906847912255252</v>
+      </c>
+      <c r="I75">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B76">
+        <v>0.072043752707883463</v>
+      </c>
+      <c r="C76">
+        <v>0.21929686700603518</v>
+      </c>
+      <c r="D76">
+        <v>0.09769163269126481</v>
+      </c>
+      <c r="E76">
+        <v>0.03235328461971735</v>
+      </c>
+      <c r="F76">
+        <v>0.11642741284587488</v>
+      </c>
+      <c r="G76">
+        <v>0.26828311172368613</v>
+      </c>
+      <c r="H76">
+        <v>0.1939039384055381</v>
+      </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
+      <c r="J76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B77">
+        <v>1.1077476994631647e-06</v>
+      </c>
+      <c r="C77">
+        <v>0.0064216963012264875</v>
+      </c>
+      <c r="D77">
+        <v>0.018501578094880167</v>
+      </c>
+      <c r="E77">
+        <v>1.5750912557696679e-05</v>
+      </c>
+      <c r="F77">
+        <v>0.10375087445614356</v>
+      </c>
+      <c r="G77">
+        <v>0.0021627876517463229</v>
+      </c>
+      <c r="H77">
+        <v>0.86914620483574634</v>
+      </c>
+      <c r="I77">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B78">
+        <v>1.2637496923315244e-06</v>
+      </c>
+      <c r="C78">
+        <v>0.016737216134415599</v>
+      </c>
+      <c r="D78">
+        <v>0.038344627025178532</v>
+      </c>
+      <c r="E78">
+        <v>1.3437896823639523e-06</v>
+      </c>
+      <c r="F78">
+        <v>0.17593710886172717</v>
+      </c>
+      <c r="G78">
+        <v>0.028114993756800589</v>
+      </c>
+      <c r="H78">
+        <v>0.74086344668250337</v>
+      </c>
+      <c r="I78">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79">
+        <v>1.4472366718849522e-07</v>
+      </c>
+      <c r="C79">
+        <v>0.0045220165453965849</v>
+      </c>
+      <c r="D79">
+        <v>0.036030377024483376</v>
+      </c>
+      <c r="E79">
+        <v>1.0338520430536826e-07</v>
+      </c>
+      <c r="F79">
+        <v>0.045191183852162219</v>
+      </c>
+      <c r="G79">
+        <v>0.0077593999200025656</v>
+      </c>
+      <c r="H79">
+        <v>0.90649677454908373</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B80">
+        <v>5.5707417438053424e-05</v>
+      </c>
+      <c r="C80">
+        <v>0.029464218204643785</v>
+      </c>
+      <c r="D80">
+        <v>0.010311968031969597</v>
+      </c>
+      <c r="E80">
+        <v>0.00013844604530050198</v>
+      </c>
+      <c r="F80">
+        <v>0.0011262146099907727</v>
+      </c>
+      <c r="G80">
+        <v>0.38873975743514838</v>
+      </c>
+      <c r="H80">
+        <v>0.57016368825550889</v>
+      </c>
+      <c r="I80">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J79"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22.85546875" customWidth="true"/>
+    <col min="3" max="3" width="22.85546875" customWidth="true"/>
+    <col min="4" max="4" width="22.85546875" customWidth="true"/>
+    <col min="5" max="5" width="22.85546875" customWidth="true"/>
+    <col min="6" max="6" width="22.85546875" customWidth="true"/>
+    <col min="7" max="7" width="22.85546875" customWidth="true"/>
+    <col min="8" max="8" width="22.85546875" customWidth="true"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true"/>
+    <col min="10" max="10" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2">
+        <v>0.25949279132747577</v>
+      </c>
+      <c r="C2">
+        <v>0.17981998054330006</v>
+      </c>
+      <c r="D2">
+        <v>0.038904606005854554</v>
+      </c>
+      <c r="E2">
+        <v>0.081678870619527527</v>
+      </c>
+      <c r="F2">
+        <v>0.33969746239041443</v>
+      </c>
+      <c r="G2">
+        <v>0.10028111699096287</v>
+      </c>
+      <c r="H2">
+        <v>0.00012517212246490841</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3">
+        <v>0.28026336540324964</v>
+      </c>
+      <c r="C3">
+        <v>0.27170538452884779</v>
+      </c>
+      <c r="D3">
+        <v>0.03858441566615952</v>
+      </c>
+      <c r="E3">
+        <v>0.15600970437929829</v>
+      </c>
+      <c r="F3">
+        <v>0.15345475767743275</v>
+      </c>
+      <c r="G3">
+        <v>0.099535176586252244</v>
+      </c>
+      <c r="H3">
+        <v>0.00044719575875990062</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4">
+        <v>0.1362753191486111</v>
+      </c>
+      <c r="C4">
+        <v>0.067058420596422974</v>
+      </c>
+      <c r="D4">
+        <v>0.12421984854263417</v>
+      </c>
+      <c r="E4">
+        <v>0.027194156674089601</v>
+      </c>
+      <c r="F4">
+        <v>0.4669918498059184</v>
+      </c>
+      <c r="G4">
+        <v>0.14840793299356314</v>
+      </c>
+      <c r="H4">
+        <v>0.029852472238760662</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5">
+        <v>0.054268738570288112</v>
+      </c>
+      <c r="C5">
+        <v>0.098613305549742791</v>
+      </c>
+      <c r="D5">
+        <v>0.040346379263447862</v>
+      </c>
+      <c r="E5">
+        <v>0.028363745374648364</v>
+      </c>
+      <c r="F5">
+        <v>0.67134460150099817</v>
+      </c>
+      <c r="G5">
+        <v>0.092875992797499751</v>
+      </c>
+      <c r="H5">
+        <v>0.014187236943375037</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6">
+        <v>0.48983795648184902</v>
+      </c>
+      <c r="C6">
+        <v>0.16719330278478889</v>
+      </c>
+      <c r="D6">
+        <v>0.051242913911996715</v>
+      </c>
+      <c r="E6">
+        <v>0.020802765361081457</v>
+      </c>
+      <c r="F6">
+        <v>0.060887920322582854</v>
+      </c>
+      <c r="G6">
+        <v>0.2031964972628702</v>
+      </c>
+      <c r="H6">
+        <v>0.0068386438748308416</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7">
+        <v>0.64407381366021865</v>
+      </c>
+      <c r="C7">
+        <v>0.037393795291429201</v>
+      </c>
+      <c r="D7">
+        <v>0.10043308201977053</v>
+      </c>
+      <c r="E7">
+        <v>0.014712974482350644</v>
+      </c>
+      <c r="F7">
+        <v>0.13684924405122112</v>
+      </c>
+      <c r="G7">
+        <v>0.066523422387900252</v>
+      </c>
+      <c r="H7">
+        <v>1.3668107109551687e-05</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8">
+        <v>0.11825755324578717</v>
+      </c>
+      <c r="C8">
+        <v>0.6153906038868423</v>
+      </c>
+      <c r="D8">
+        <v>0.078818490003462596</v>
+      </c>
+      <c r="E8">
+        <v>0.005236711649671941</v>
+      </c>
+      <c r="F8">
+        <v>0.036039266870637965</v>
+      </c>
+      <c r="G8">
+        <v>0.14570820073400748</v>
+      </c>
+      <c r="H8">
+        <v>0.00054917360959057997</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9">
+        <v>0.038361548138673887</v>
+      </c>
+      <c r="C9">
+        <v>0.6247957039555122</v>
+      </c>
+      <c r="D9">
+        <v>0.096721436468468244</v>
+      </c>
+      <c r="E9">
+        <v>0.013722635423687042</v>
+      </c>
+      <c r="F9">
+        <v>0.10539185545249344</v>
+      </c>
+      <c r="G9">
+        <v>0.11999709900687459</v>
+      </c>
+      <c r="H9">
+        <v>0.0010097215542906335</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10">
+        <v>0.064095749979840078</v>
+      </c>
+      <c r="C10">
+        <v>0.42074037815271853</v>
+      </c>
+      <c r="D10">
+        <v>0.10071308880695887</v>
+      </c>
+      <c r="E10">
+        <v>0.0080946166937884232</v>
+      </c>
+      <c r="F10">
+        <v>0.21993820798153227</v>
+      </c>
+      <c r="G10">
+        <v>0.18557878594678626</v>
+      </c>
+      <c r="H10">
+        <v>0.00083917243837562444</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11">
+        <v>0.043036010296544809</v>
+      </c>
+      <c r="C11">
+        <v>0.58663829998602257</v>
+      </c>
+      <c r="D11">
+        <v>0.038454276440569729</v>
+      </c>
+      <c r="E11">
+        <v>0.053027510948630889</v>
+      </c>
+      <c r="F11">
+        <v>0.17341597089176633</v>
+      </c>
+      <c r="G11">
+        <v>0.1053379346814214</v>
+      </c>
+      <c r="H11">
+        <v>8.9996755044156982e-05</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12">
+        <v>0.084558107118995127</v>
+      </c>
+      <c r="C12">
+        <v>0.39375194736774605</v>
+      </c>
+      <c r="D12">
+        <v>0.12763438596599508</v>
+      </c>
+      <c r="E12">
+        <v>0.10133986040044728</v>
+      </c>
+      <c r="F12">
+        <v>0.098202113070909022</v>
+      </c>
+      <c r="G12">
+        <v>0.19347790397193876</v>
+      </c>
+      <c r="H12">
+        <v>0.0010356821039686612</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13">
+        <v>0.14735832563803813</v>
+      </c>
+      <c r="C13">
+        <v>0.22629937206802581</v>
+      </c>
+      <c r="D13">
+        <v>0.13720858181165113</v>
+      </c>
+      <c r="E13">
+        <v>0.0043655285574383659</v>
+      </c>
+      <c r="F13">
+        <v>0.18936936039232219</v>
+      </c>
+      <c r="G13">
+        <v>0.27636916016122798</v>
+      </c>
+      <c r="H13">
+        <v>0.019029671371296367</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14">
+        <v>0.084080465405241459</v>
+      </c>
+      <c r="C14">
+        <v>0.53953800942704966</v>
+      </c>
+      <c r="D14">
+        <v>0.12783424876355526</v>
+      </c>
+      <c r="E14">
+        <v>0.035384513533491202</v>
+      </c>
+      <c r="F14">
+        <v>0.061892807806131551</v>
+      </c>
+      <c r="G14">
+        <v>0.15115113850428211</v>
+      </c>
+      <c r="H14">
+        <v>0.00011881656024883359</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15">
+        <v>0.097251010686732975</v>
+      </c>
+      <c r="C15">
+        <v>0.3033800987584846</v>
+      </c>
+      <c r="D15">
+        <v>0.083046369384689761</v>
+      </c>
+      <c r="E15">
+        <v>0.060824519277326718</v>
+      </c>
+      <c r="F15">
+        <v>0.25204497025320338</v>
+      </c>
+      <c r="G15">
+        <v>0.19513654809165829</v>
+      </c>
+      <c r="H15">
+        <v>0.0083164835479043447</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16">
+        <v>0.094346152504165282</v>
+      </c>
+      <c r="C16">
+        <v>0.37339609230696225</v>
+      </c>
+      <c r="D16">
+        <v>0.079163335599405374</v>
+      </c>
+      <c r="E16">
+        <v>0.084873551790657531</v>
+      </c>
+      <c r="F16">
+        <v>0.1481710682309601</v>
+      </c>
+      <c r="G16">
+        <v>0.21745159683954793</v>
+      </c>
+      <c r="H16">
+        <v>0.0025982027283014547</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17">
+        <v>0.062608948831804359</v>
+      </c>
+      <c r="C17">
+        <v>0.42413499326095805</v>
+      </c>
+      <c r="D17">
+        <v>0.06846265404293056</v>
+      </c>
+      <c r="E17">
+        <v>0.046261460602912211</v>
+      </c>
+      <c r="F17">
+        <v>0.19800914912289264</v>
+      </c>
+      <c r="G17">
+        <v>0.19685001785164952</v>
+      </c>
+      <c r="H17">
+        <v>0.0036727762868527516</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18">
+        <v>0.081561586769227049</v>
+      </c>
+      <c r="C18">
+        <v>0.21927059693377926</v>
+      </c>
+      <c r="D18">
+        <v>0.071039973733082462</v>
+      </c>
+      <c r="E18">
+        <v>0.017952145554173498</v>
+      </c>
+      <c r="F18">
+        <v>0.33979939724230079</v>
+      </c>
+      <c r="G18">
+        <v>0.24832335522564475</v>
+      </c>
+      <c r="H18">
+        <v>0.022052944541792189</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19">
+        <v>0.042286020262756262</v>
+      </c>
+      <c r="C19">
+        <v>0.29950512245152211</v>
+      </c>
+      <c r="D19">
+        <v>0.049255658638269327</v>
+      </c>
+      <c r="E19">
+        <v>0.028731804783363346</v>
+      </c>
+      <c r="F19">
+        <v>0.32876235760764061</v>
+      </c>
+      <c r="G19">
+        <v>0.22064672860523626</v>
+      </c>
+      <c r="H19">
+        <v>0.030812307651212196</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20">
+        <v>0.033143088631701942</v>
+      </c>
+      <c r="C20">
+        <v>0.26165437803245667</v>
+      </c>
+      <c r="D20">
+        <v>0.04870856209117131</v>
+      </c>
+      <c r="E20">
+        <v>0.02446872418507879</v>
+      </c>
+      <c r="F20">
+        <v>0.26097915657773191</v>
+      </c>
+      <c r="G20">
+        <v>0.180433426213711</v>
+      </c>
+      <c r="H20">
+        <v>0.19061266426814835</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21">
+        <v>0.036545221616171859</v>
+      </c>
+      <c r="C21">
+        <v>0.24497626245035559</v>
+      </c>
+      <c r="D21">
+        <v>0.043124126631077592</v>
+      </c>
+      <c r="E21">
+        <v>0.035562348177217276</v>
+      </c>
+      <c r="F21">
+        <v>0.19630624015676726</v>
+      </c>
+      <c r="G21">
+        <v>0.42857640060207114</v>
+      </c>
+      <c r="H21">
+        <v>0.014909400366339259</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22">
+        <v>0.042041676597099717</v>
+      </c>
+      <c r="C22">
+        <v>0.1691080725685413</v>
+      </c>
+      <c r="D22">
+        <v>0.062464367455741847</v>
+      </c>
+      <c r="E22">
+        <v>0.031509219662896791</v>
+      </c>
+      <c r="F22">
+        <v>0.20550099315348913</v>
+      </c>
+      <c r="G22">
+        <v>0.46703327584058685</v>
+      </c>
+      <c r="H22">
+        <v>0.022342394721644288</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23">
+        <v>0.026176654924164738</v>
+      </c>
+      <c r="C23">
+        <v>0.055142048169388481</v>
+      </c>
+      <c r="D23">
+        <v>0.027439099006508563</v>
+      </c>
+      <c r="E23">
+        <v>0.029157922391090899</v>
+      </c>
+      <c r="F23">
+        <v>0.033487351381598418</v>
+      </c>
+      <c r="G23">
+        <v>0.76839834672692864</v>
+      </c>
+      <c r="H23">
+        <v>0.060198577400320273</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24">
+        <v>0.0035246579223122518</v>
+      </c>
+      <c r="C24">
+        <v>0.005887387329920178</v>
+      </c>
+      <c r="D24">
+        <v>0.073237432655012133</v>
+      </c>
+      <c r="E24">
+        <v>3.3422782851073636e-07</v>
+      </c>
+      <c r="F24">
+        <v>0.0020940826022542423</v>
+      </c>
+      <c r="G24">
+        <v>0.91483200894794658</v>
+      </c>
+      <c r="H24">
+        <v>0.00042409631472613524</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25">
+        <v>0.17439900619562082</v>
+      </c>
+      <c r="C25">
+        <v>0.29022758706109969</v>
+      </c>
+      <c r="D25">
+        <v>0.20572587714532364</v>
+      </c>
+      <c r="E25">
+        <v>0.0028615384774243759</v>
+      </c>
+      <c r="F25">
+        <v>0.048605887056981462</v>
+      </c>
+      <c r="G25">
+        <v>0.26028604061054389</v>
+      </c>
+      <c r="H25">
+        <v>0.017894063453006259</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26">
+        <v>0.076523784488760793</v>
+      </c>
+      <c r="C26">
+        <v>0.59763184759860088</v>
+      </c>
+      <c r="D26">
+        <v>0.075920660147717423</v>
+      </c>
+      <c r="E26">
+        <v>0.056992119682886547</v>
+      </c>
+      <c r="F26">
+        <v>0.059508938722673703</v>
+      </c>
+      <c r="G26">
+        <v>0.13295860428485515</v>
+      </c>
+      <c r="H26">
+        <v>0.00046404507450553998</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27">
+        <v>0.15549624193127906</v>
+      </c>
+      <c r="C27">
+        <v>0.020504577625325884</v>
+      </c>
+      <c r="D27">
+        <v>0.47959847605003803</v>
+      </c>
+      <c r="E27">
+        <v>0.018392519102664491</v>
+      </c>
+      <c r="F27">
+        <v>0.22189986915473814</v>
+      </c>
+      <c r="G27">
+        <v>0.10202356612572551</v>
+      </c>
+      <c r="H27">
+        <v>0.0020847500102289165</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28">
+        <v>0.16461195568690948</v>
+      </c>
+      <c r="C28">
+        <v>0.26170687289874572</v>
+      </c>
+      <c r="D28">
+        <v>0.23691839617986524</v>
+      </c>
+      <c r="E28">
+        <v>0.13421714974841259</v>
+      </c>
+      <c r="F28">
+        <v>0.027045561614007889</v>
+      </c>
+      <c r="G28">
+        <v>0.17465895076841539</v>
+      </c>
+      <c r="H28">
+        <v>0.00084111310364365713</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29">
+        <v>0.24185531696936285</v>
+      </c>
+      <c r="C29">
+        <v>0.093271486146895857</v>
+      </c>
+      <c r="D29">
+        <v>0.38369284267810694</v>
+      </c>
+      <c r="E29">
+        <v>0.13578769381339462</v>
+      </c>
+      <c r="F29">
+        <v>0.064651008082221156</v>
+      </c>
+      <c r="G29">
+        <v>0.080551960094030109</v>
+      </c>
+      <c r="H29">
+        <v>0.00018969221598839193</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30">
+        <v>0.028051230293840424</v>
+      </c>
+      <c r="C30">
+        <v>0.051172363601667541</v>
+      </c>
+      <c r="D30">
+        <v>0.017464953186844871</v>
+      </c>
+      <c r="E30">
+        <v>0.0022390152244424729</v>
+      </c>
+      <c r="F30">
+        <v>0.88298635181771035</v>
+      </c>
+      <c r="G30">
+        <v>0.018062778573904887</v>
+      </c>
+      <c r="H30">
+        <v>2.3307301589514967e-05</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B31">
+        <v>0.024437213116124762</v>
+      </c>
+      <c r="C31">
+        <v>0.062632981448772176</v>
+      </c>
+      <c r="D31">
+        <v>0.024566644743898081</v>
+      </c>
+      <c r="E31">
+        <v>0.01324427259200066</v>
+      </c>
+      <c r="F31">
+        <v>0.83733291345142646</v>
+      </c>
+      <c r="G31">
+        <v>0.037744586090856021</v>
+      </c>
+      <c r="H31">
+        <v>4.1388556921861232e-05</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B32">
+        <v>0.044488465273484379</v>
+      </c>
+      <c r="C32">
+        <v>0.049494724951183192</v>
+      </c>
+      <c r="D32">
+        <v>0.039804062648502274</v>
+      </c>
+      <c r="E32">
+        <v>0.0009254611339700444</v>
+      </c>
+      <c r="F32">
+        <v>0.81820993081101379</v>
+      </c>
+      <c r="G32">
+        <v>0.0453801817997719</v>
+      </c>
+      <c r="H32">
+        <v>0.0016971733820745124</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33">
+        <v>0.023947966259838093</v>
+      </c>
+      <c r="C33">
+        <v>0.057452488827054005</v>
+      </c>
+      <c r="D33">
+        <v>0.019009494100031506</v>
+      </c>
+      <c r="E33">
+        <v>0.019021661648148881</v>
+      </c>
+      <c r="F33">
+        <v>0.84053182603093002</v>
+      </c>
+      <c r="G33">
+        <v>0.039970931708267599</v>
+      </c>
+      <c r="H33">
+        <v>6.5631425729890694e-05</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B34">
+        <v>0.16938562601478779</v>
+      </c>
+      <c r="C34">
+        <v>0.0569956195988797</v>
+      </c>
+      <c r="D34">
+        <v>0.15950482627725601</v>
+      </c>
+      <c r="E34">
+        <v>0.0012515982483276549</v>
+      </c>
+      <c r="F34">
+        <v>0.44783531171368757</v>
+      </c>
+      <c r="G34">
+        <v>0.16262891992416192</v>
+      </c>
+      <c r="H34">
+        <v>0.0023980982228994333</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B35">
+        <v>0.026398018964300142</v>
+      </c>
+      <c r="C35">
+        <v>0.096115312024733626</v>
+      </c>
+      <c r="D35">
+        <v>0.028418887121372978</v>
+      </c>
+      <c r="E35">
+        <v>0.019502254162209052</v>
+      </c>
+      <c r="F35">
+        <v>0.70522371221107982</v>
+      </c>
+      <c r="G35">
+        <v>0.1207302489963149</v>
+      </c>
+      <c r="H35">
+        <v>0.0036115665199894283</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B36">
+        <v>0.019260834491343273</v>
+      </c>
+      <c r="C36">
+        <v>0.13223689676570077</v>
+      </c>
+      <c r="D36">
+        <v>0.024182732747445691</v>
+      </c>
+      <c r="E36">
+        <v>0.01897858318789503</v>
+      </c>
+      <c r="F36">
+        <v>0.70054278656489388</v>
+      </c>
+      <c r="G36">
+        <v>0.10341103684976041</v>
+      </c>
+      <c r="H36">
+        <v>0.0013871293929609402</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B37">
+        <v>0.029906492972804587</v>
+      </c>
+      <c r="C37">
+        <v>0.11282409585784353</v>
+      </c>
+      <c r="D37">
+        <v>0.038348843750369843</v>
+      </c>
+      <c r="E37">
+        <v>0.021837162800624213</v>
+      </c>
+      <c r="F37">
+        <v>0.65992086779740722</v>
+      </c>
+      <c r="G37">
+        <v>0.095573702248685291</v>
+      </c>
+      <c r="H37">
+        <v>0.041588834572265337</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B38">
+        <v>0.02842870545636085</v>
+      </c>
+      <c r="C38">
+        <v>0.12482013290139601</v>
+      </c>
+      <c r="D38">
+        <v>0.039127886180347467</v>
+      </c>
+      <c r="E38">
+        <v>0.027787896534452065</v>
+      </c>
+      <c r="F38">
+        <v>0.61785907493456704</v>
+      </c>
+      <c r="G38">
+        <v>0.15522879074788756</v>
+      </c>
+      <c r="H38">
+        <v>0.0067475132449889754</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B39">
+        <v>0.027841215276121448</v>
+      </c>
+      <c r="C39">
+        <v>0.028879334161610894</v>
+      </c>
+      <c r="D39">
+        <v>0.07953221344097712</v>
+      </c>
+      <c r="E39">
+        <v>0.00035079689677458651</v>
+      </c>
+      <c r="F39">
+        <v>0.79386077915507935</v>
+      </c>
+      <c r="G39">
+        <v>0.06915760795710317</v>
+      </c>
+      <c r="H39">
+        <v>0.00037805311233351434</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40">
+        <v>0.0060536950618882588</v>
+      </c>
+      <c r="C40">
+        <v>0.028184686727519472</v>
+      </c>
+      <c r="D40">
+        <v>0.0099059216775617669</v>
+      </c>
+      <c r="E40">
+        <v>0.0062168831873157223</v>
+      </c>
+      <c r="F40">
+        <v>0.1536731074057047</v>
+      </c>
+      <c r="G40">
+        <v>0.009066517030020118</v>
+      </c>
+      <c r="H40">
+        <v>0.78689918890999</v>
+      </c>
+      <c r="I40">
+        <v>7</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B41">
+        <v>0.036980627856315111</v>
+      </c>
+      <c r="C41">
+        <v>0.1626551047067635</v>
+      </c>
+      <c r="D41">
+        <v>0.038895926423880456</v>
+      </c>
+      <c r="E41">
+        <v>0.029777481276691463</v>
+      </c>
+      <c r="F41">
+        <v>0.46351301916298426</v>
+      </c>
+      <c r="G41">
+        <v>0.22927229387197212</v>
+      </c>
+      <c r="H41">
+        <v>0.038905546701393068</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42">
+        <v>0.023662196393495673</v>
+      </c>
+      <c r="C42">
+        <v>0.070442183558748719</v>
+      </c>
+      <c r="D42">
+        <v>0.033784780075212434</v>
+      </c>
+      <c r="E42">
+        <v>0.020109592196184488</v>
+      </c>
+      <c r="F42">
+        <v>0.70616500338452015</v>
+      </c>
+      <c r="G42">
+        <v>0.077727582762339584</v>
+      </c>
+      <c r="H42">
+        <v>0.068108661629498898</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43">
+        <v>0.054696684724625508</v>
+      </c>
+      <c r="C43">
+        <v>0.077469416698096316</v>
+      </c>
+      <c r="D43">
+        <v>0.019643785091229344</v>
+      </c>
+      <c r="E43">
+        <v>0.0057683711482358901</v>
+      </c>
+      <c r="F43">
+        <v>0.81972967747049252</v>
+      </c>
+      <c r="G43">
+        <v>0.022548999467596777</v>
+      </c>
+      <c r="H43">
+        <v>0.0001430653997235623</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B44">
+        <v>0.030702564059200348</v>
+      </c>
+      <c r="C44">
+        <v>0.097492656720365445</v>
+      </c>
+      <c r="D44">
+        <v>0.065299903616837879</v>
+      </c>
+      <c r="E44">
+        <v>0.023101740749873083</v>
+      </c>
+      <c r="F44">
+        <v>0.36169981455786687</v>
+      </c>
+      <c r="G44">
+        <v>0.39793754374212303</v>
+      </c>
+      <c r="H44">
+        <v>0.023765776553733357</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B45">
+        <v>0.027274647325214476</v>
+      </c>
+      <c r="C45">
+        <v>0.18909510794610299</v>
+      </c>
+      <c r="D45">
+        <v>0.056442069305381662</v>
+      </c>
+      <c r="E45">
+        <v>0.0078517832233076547</v>
+      </c>
+      <c r="F45">
+        <v>0.20241350081735118</v>
+      </c>
+      <c r="G45">
+        <v>0.3959791445193917</v>
+      </c>
+      <c r="H45">
+        <v>0.1209437468632503</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B46">
+        <v>0.052831769246511062</v>
+      </c>
+      <c r="C46">
+        <v>0.056533027323682455</v>
+      </c>
+      <c r="D46">
+        <v>0.018613555247399126</v>
+      </c>
+      <c r="E46">
+        <v>0.0041994367023622473</v>
+      </c>
+      <c r="F46">
+        <v>0.82455466543693756</v>
+      </c>
+      <c r="G46">
+        <v>0.043157594039745527</v>
+      </c>
+      <c r="H46">
+        <v>0.00010995200336212927</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B47">
+        <v>0.094072260174125191</v>
+      </c>
+      <c r="C47">
+        <v>0.35303590468606638</v>
+      </c>
+      <c r="D47">
+        <v>0.095860727216180594</v>
+      </c>
+      <c r="E47">
+        <v>0.0097117422764020234</v>
+      </c>
+      <c r="F47">
+        <v>0.18235197456277602</v>
+      </c>
+      <c r="G47">
+        <v>0.26315594462825115</v>
+      </c>
+      <c r="H47">
+        <v>0.0018114464561987487</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48">
+        <v>0.051245485651949821</v>
+      </c>
+      <c r="C48">
+        <v>0.27521433208249679</v>
+      </c>
+      <c r="D48">
+        <v>0.061317975187679293</v>
+      </c>
+      <c r="E48">
+        <v>0.029749063398003893</v>
+      </c>
+      <c r="F48">
+        <v>0.2188724876621097</v>
+      </c>
+      <c r="G48">
+        <v>0.3238222606367101</v>
+      </c>
+      <c r="H48">
+        <v>0.039778395381050463</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B49">
+        <v>0.028821676870491027</v>
+      </c>
+      <c r="C49">
+        <v>0.23821475809746046</v>
+      </c>
+      <c r="D49">
+        <v>0.035288297679954429</v>
+      </c>
+      <c r="E49">
+        <v>0.045431704873201952</v>
+      </c>
+      <c r="F49">
+        <v>0.19307505995234842</v>
+      </c>
+      <c r="G49">
+        <v>0.45909805937518611</v>
+      </c>
+      <c r="H49">
+        <v>7.0443151357830488e-05</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B50">
+        <v>0.029294066991791816</v>
+      </c>
+      <c r="C50">
+        <v>0.10785631531938572</v>
+      </c>
+      <c r="D50">
+        <v>0.042276705477239024</v>
+      </c>
+      <c r="E50">
+        <v>0.0309909779406576</v>
+      </c>
+      <c r="F50">
+        <v>0.43814422629327493</v>
+      </c>
+      <c r="G50">
+        <v>0.35107264604434518</v>
+      </c>
+      <c r="H50">
+        <v>0.00036506193330590941</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51">
+        <v>0.042820942624244317</v>
+      </c>
+      <c r="C51">
+        <v>0.22633270511480194</v>
+      </c>
+      <c r="D51">
+        <v>0.053598261138365931</v>
+      </c>
+      <c r="E51">
+        <v>0.038553990814468933</v>
+      </c>
+      <c r="F51">
+        <v>0.20410673161543585</v>
+      </c>
+      <c r="G51">
+        <v>0.37659284641280466</v>
+      </c>
+      <c r="H51">
+        <v>0.057994522279878453</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52">
+        <v>0.016878332712903881</v>
+      </c>
+      <c r="C52">
+        <v>0.068069377184667712</v>
+      </c>
+      <c r="D52">
+        <v>0.050696781047766412</v>
+      </c>
+      <c r="E52">
+        <v>0.011309606213462289</v>
+      </c>
+      <c r="F52">
+        <v>0.22918815995936448</v>
+      </c>
+      <c r="G52">
+        <v>0.62375923034499181</v>
+      </c>
+      <c r="H52">
+        <v>9.8512536843502495e-05</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53">
+        <v>0.05321021765300292</v>
+      </c>
+      <c r="C53">
+        <v>0.42472100317643646</v>
+      </c>
+      <c r="D53">
+        <v>0.089938535197989902</v>
+      </c>
+      <c r="E53">
+        <v>0.0061501479831319403</v>
+      </c>
+      <c r="F53">
+        <v>0.22448741692072791</v>
+      </c>
+      <c r="G53">
+        <v>0.1992560166497799</v>
+      </c>
+      <c r="H53">
+        <v>0.0022366624189308557</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54">
+        <v>0.019483621816135364</v>
+      </c>
+      <c r="C54">
+        <v>0.030186387414861071</v>
+      </c>
+      <c r="D54">
+        <v>0.02240416728814382</v>
+      </c>
+      <c r="E54">
+        <v>0.018476240777763303</v>
+      </c>
+      <c r="F54">
+        <v>0.025356462906089727</v>
+      </c>
+      <c r="G54">
+        <v>0.52593967279054465</v>
+      </c>
+      <c r="H54">
+        <v>0.35815344700646196</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B55">
+        <v>0.10167406417802058</v>
+      </c>
+      <c r="C55">
+        <v>0.39919091508846988</v>
+      </c>
+      <c r="D55">
+        <v>0.095008995104184465</v>
+      </c>
+      <c r="E55">
+        <v>0.0045343848143838883</v>
+      </c>
+      <c r="F55">
+        <v>0.23411128237511422</v>
+      </c>
+      <c r="G55">
+        <v>0.16139444023848043</v>
+      </c>
+      <c r="H55">
+        <v>0.0040859182013466798</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B56">
+        <v>0.035444419519879228</v>
+      </c>
+      <c r="C56">
+        <v>0.031080105265003315</v>
+      </c>
+      <c r="D56">
+        <v>0.0089902374398387695</v>
+      </c>
+      <c r="E56">
+        <v>0.00087952545963264318</v>
+      </c>
+      <c r="F56">
+        <v>0.021312301526061568</v>
+      </c>
+      <c r="G56">
+        <v>0.90185730875526382</v>
+      </c>
+      <c r="H56">
+        <v>0.00043610203432064827</v>
+      </c>
+      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57">
+        <v>0.038920259867379792</v>
+      </c>
+      <c r="C57">
+        <v>0.43813855859004547</v>
+      </c>
+      <c r="D57">
+        <v>0.12659070676065223</v>
+      </c>
+      <c r="E57">
+        <v>0.0032895177412390142</v>
+      </c>
+      <c r="F57">
+        <v>0.068424814583304391</v>
+      </c>
+      <c r="G57">
+        <v>0.31935280639609792</v>
+      </c>
+      <c r="H57">
+        <v>0.0052833360612812106</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B58">
+        <v>0.015334901785113259</v>
+      </c>
+      <c r="C58">
+        <v>0.045495505759857592</v>
+      </c>
+      <c r="D58">
+        <v>0.010947835441422799</v>
+      </c>
+      <c r="E58">
+        <v>0.00042996284698563889</v>
+      </c>
+      <c r="F58">
+        <v>0.020858930783006272</v>
+      </c>
+      <c r="G58">
+        <v>0.90567373125002104</v>
+      </c>
+      <c r="H58">
+        <v>0.0012591321335933981</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B59">
+        <v>0.019175212432960942</v>
+      </c>
+      <c r="C59">
+        <v>0.034525486631088877</v>
+      </c>
+      <c r="D59">
+        <v>0.03626263314836236</v>
+      </c>
+      <c r="E59">
+        <v>0.0025666661792796371</v>
+      </c>
+      <c r="F59">
+        <v>0.013309433072060851</v>
+      </c>
+      <c r="G59">
+        <v>0.80447125288946542</v>
+      </c>
+      <c r="H59">
+        <v>0.089689315646781967</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B60">
+        <v>0.0036525000963824506</v>
+      </c>
+      <c r="C60">
+        <v>0.024524204129546628</v>
+      </c>
+      <c r="D60">
+        <v>0.0061600805790571729</v>
+      </c>
+      <c r="E60">
+        <v>0.0029280476941379047</v>
+      </c>
+      <c r="F60">
+        <v>0.00097213485444248024</v>
+      </c>
+      <c r="G60">
+        <v>0.10368547037391397</v>
+      </c>
+      <c r="H60">
+        <v>0.8580775622725193</v>
+      </c>
+      <c r="I60">
+        <v>7</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B61">
+        <v>0.0074646782503741179</v>
+      </c>
+      <c r="C61">
+        <v>0.028090918068572886</v>
+      </c>
+      <c r="D61">
+        <v>0.0020603131872200292</v>
+      </c>
+      <c r="E61">
+        <v>0.0018810462907786199</v>
+      </c>
+      <c r="F61">
+        <v>0.0056642049978107177</v>
+      </c>
+      <c r="G61">
+        <v>0.95451907322002982</v>
+      </c>
+      <c r="H61">
+        <v>0.00031976598521381695</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62">
+        <v>0.063202765127023275</v>
+      </c>
+      <c r="C62">
+        <v>0.01183325907196019</v>
+      </c>
+      <c r="D62">
+        <v>0.004571057192902378</v>
+      </c>
+      <c r="E62">
+        <v>1.2037794332468172e-05</v>
+      </c>
+      <c r="F62">
+        <v>0.0045708992335580347</v>
+      </c>
+      <c r="G62">
+        <v>0.91579562998050545</v>
+      </c>
+      <c r="H62">
+        <v>1.4351599718155526e-05</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B63">
+        <v>0.008374344322200902</v>
+      </c>
+      <c r="C63">
+        <v>0.0093724264987734424</v>
+      </c>
+      <c r="D63">
+        <v>0.0073154446679135395</v>
+      </c>
+      <c r="E63">
+        <v>5.7532658753191269e-05</v>
+      </c>
+      <c r="F63">
+        <v>0.00099049283978125727</v>
+      </c>
+      <c r="G63">
+        <v>0.97282309743078133</v>
+      </c>
+      <c r="H63">
+        <v>0.0010666615817963461</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B64">
+        <v>0.00029894509677300698</v>
+      </c>
+      <c r="C64">
+        <v>0.0085273281373421505</v>
+      </c>
+      <c r="D64">
+        <v>0.0063399541693961925</v>
+      </c>
+      <c r="E64">
+        <v>0.0008185958079671618</v>
+      </c>
+      <c r="F64">
+        <v>0.054997157865301217</v>
+      </c>
+      <c r="G64">
+        <v>0.92404967062971588</v>
+      </c>
+      <c r="H64">
+        <v>0.0049683482935044083</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B65">
+        <v>0.04652605948974025</v>
+      </c>
+      <c r="C65">
+        <v>0.18341444713172139</v>
+      </c>
+      <c r="D65">
+        <v>0.06117982301567524</v>
+      </c>
+      <c r="E65">
+        <v>0.024725728032237597</v>
+      </c>
+      <c r="F65">
+        <v>0.17185559364622771</v>
+      </c>
+      <c r="G65">
+        <v>0.33413328006268123</v>
+      </c>
+      <c r="H65">
+        <v>0.17816506862171652</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B66">
+        <v>0.0027114502545608132</v>
+      </c>
+      <c r="C66">
+        <v>0.032311237193738379</v>
+      </c>
+      <c r="D66">
+        <v>0.013736954363105252</v>
+      </c>
+      <c r="E66">
+        <v>0.0047321871354114456</v>
+      </c>
+      <c r="F66">
+        <v>0.027415755612819649</v>
+      </c>
+      <c r="G66">
+        <v>0.050179755138893035</v>
+      </c>
+      <c r="H66">
+        <v>0.86891266030147141</v>
+      </c>
+      <c r="I66">
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67">
+        <v>0.0062914715902476787</v>
+      </c>
+      <c r="C67">
+        <v>0.026143776721947221</v>
+      </c>
+      <c r="D67">
+        <v>0.012475847865626759</v>
+      </c>
+      <c r="E67">
+        <v>0.0062689436859264874</v>
+      </c>
+      <c r="F67">
+        <v>0.11580906513857736</v>
+      </c>
+      <c r="G67">
+        <v>0.026273745662336138</v>
+      </c>
+      <c r="H67">
+        <v>0.80673714933533835</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B68">
+        <v>0.0074137996907685869</v>
+      </c>
+      <c r="C68">
+        <v>0.050798303520849408</v>
+      </c>
+      <c r="D68">
+        <v>0.017207813347725098</v>
+      </c>
+      <c r="E68">
+        <v>0.0088443450520613726</v>
+      </c>
+      <c r="F68">
+        <v>0.045330842697869578</v>
+      </c>
+      <c r="G68">
+        <v>0.13194635189624385</v>
+      </c>
+      <c r="H68">
+        <v>0.73845854379448206</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B69">
+        <v>0.00068214871380016529</v>
+      </c>
+      <c r="C69">
+        <v>0.0072893636577062923</v>
+      </c>
+      <c r="D69">
+        <v>0.0059883561544544859</v>
+      </c>
+      <c r="E69">
+        <v>0.0179856976926497</v>
+      </c>
+      <c r="F69">
+        <v>0.0066340503244862771</v>
+      </c>
+      <c r="G69">
+        <v>0.018069176149127415</v>
+      </c>
+      <c r="H69">
+        <v>0.94335120730777566</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B70">
+        <v>0.019804468772131122</v>
+      </c>
+      <c r="C70">
+        <v>0.073596885251125246</v>
+      </c>
+      <c r="D70">
+        <v>0.013094751200570744</v>
+      </c>
+      <c r="E70">
+        <v>0.0050750843193701142</v>
+      </c>
+      <c r="F70">
+        <v>0.062960686711109201</v>
+      </c>
+      <c r="G70">
+        <v>0.057071476627005423</v>
+      </c>
+      <c r="H70">
+        <v>0.76839664711868816</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B71">
+        <v>0.0064237566656038681</v>
+      </c>
+      <c r="C71">
+        <v>0.022400595487472016</v>
+      </c>
+      <c r="D71">
+        <v>0.02143095543225243</v>
+      </c>
+      <c r="E71">
+        <v>0.013990696249850516</v>
+      </c>
+      <c r="F71">
+        <v>0.10205282468773938</v>
+      </c>
+      <c r="G71">
+        <v>0.11723215873461602</v>
+      </c>
+      <c r="H71">
+        <v>0.71646901274246577</v>
+      </c>
+      <c r="I71">
+        <v>7</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B72">
+        <v>2.7578951984607135e-05</v>
+      </c>
+      <c r="C72">
+        <v>0.014718477315560847</v>
+      </c>
+      <c r="D72">
+        <v>0.013048672209690037</v>
+      </c>
+      <c r="E72">
+        <v>0.0042197488175606535</v>
+      </c>
+      <c r="F72">
+        <v>0.0030195196978971888</v>
+      </c>
+      <c r="G72">
+        <v>0.028891694184967624</v>
+      </c>
+      <c r="H72">
+        <v>0.936074308822339</v>
+      </c>
+      <c r="I72">
+        <v>7</v>
+      </c>
+      <c r="J72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B73">
+        <v>0.00050070802393606211</v>
+      </c>
+      <c r="C73">
+        <v>0.016772138253358798</v>
+      </c>
+      <c r="D73">
+        <v>0.0072885423383000775</v>
+      </c>
+      <c r="E73">
+        <v>0.0077427710048769182</v>
+      </c>
+      <c r="F73">
+        <v>0.02217577585624618</v>
+      </c>
+      <c r="G73">
+        <v>0.10594988488137962</v>
+      </c>
+      <c r="H73">
+        <v>0.83957017964190239</v>
+      </c>
+      <c r="I73">
+        <v>7</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B74">
+        <v>0.00055429080377185792</v>
+      </c>
+      <c r="C74">
+        <v>0.012202420081469429</v>
+      </c>
+      <c r="D74">
+        <v>0.0084158972214641928</v>
+      </c>
+      <c r="E74">
+        <v>0.0021805289624915011</v>
+      </c>
+      <c r="F74">
+        <v>0.0042383493310748834</v>
+      </c>
+      <c r="G74">
+        <v>0.12947317756761567</v>
+      </c>
+      <c r="H74">
+        <v>0.84293533603211246</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75">
+        <v>0.00019307882532255453</v>
+      </c>
+      <c r="C75">
+        <v>0.010330015859211077</v>
+      </c>
+      <c r="D75">
+        <v>0.0078600526913181461</v>
+      </c>
+      <c r="E75">
+        <v>0.01189612935164365</v>
+      </c>
+      <c r="F75">
+        <v>0.0017743294884258378</v>
+      </c>
+      <c r="G75">
+        <v>0.076873097714489663</v>
+      </c>
+      <c r="H75">
+        <v>0.89107329606958907</v>
+      </c>
+      <c r="I75">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B76">
+        <v>0.0010072251839450778</v>
+      </c>
+      <c r="C76">
+        <v>0.039325874036514316</v>
+      </c>
+      <c r="D76">
+        <v>0.0010472503292931377</v>
+      </c>
+      <c r="E76">
+        <v>0.0041403309576302366</v>
+      </c>
+      <c r="F76">
+        <v>0.0022472752960871743</v>
+      </c>
+      <c r="G76">
+        <v>0.45223744553157308</v>
+      </c>
+      <c r="H76">
+        <v>0.49999459866495694</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B77">
+        <v>0.0001198778774330969</v>
+      </c>
+      <c r="C77">
+        <v>0.0037809126546181492</v>
+      </c>
+      <c r="D77">
+        <v>0.0063610257681029373</v>
+      </c>
+      <c r="E77">
+        <v>0.00051972155058163292</v>
+      </c>
+      <c r="F77">
+        <v>0.017150511982134121</v>
+      </c>
+      <c r="G77">
+        <v>0.019522434193119945</v>
+      </c>
+      <c r="H77">
+        <v>0.95254551597401005</v>
+      </c>
+      <c r="I77">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B78">
+        <v>2.4853447282741472e-05</v>
+      </c>
+      <c r="C78">
+        <v>0.0067981068764987026</v>
+      </c>
+      <c r="D78">
+        <v>0.014945642325184139</v>
+      </c>
+      <c r="E78">
+        <v>0.00031268053335739392</v>
+      </c>
+      <c r="F78">
+        <v>7.3188530556582532e-05</v>
+      </c>
+      <c r="G78">
+        <v>0.03318630543608591</v>
+      </c>
+      <c r="H78">
+        <v>0.94465922285103454</v>
+      </c>
+      <c r="I78">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79">
+        <v>0.00020434462490939078</v>
+      </c>
+      <c r="C79">
+        <v>0.020847831069297287</v>
+      </c>
+      <c r="D79">
+        <v>0.034457525691328796</v>
+      </c>
+      <c r="E79">
+        <v>8.0080154287413106e-05</v>
+      </c>
+      <c r="F79">
+        <v>0.0006120156226337687</v>
+      </c>
+      <c r="G79">
+        <v>0.046204913311782558</v>
+      </c>
+      <c r="H79">
+        <v>0.89759328952576078</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>